--- a/StockPriceProject/Data.xlsx
+++ b/StockPriceProject/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22464" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22470" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio 1" sheetId="2" r:id="rId1"/>
@@ -217,6 +217,29 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Foglio 1'!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18:51:18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18:51:48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18:52:19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18:52:49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18:53:19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Foglio 1'!$C$2:$C$6</c:f>
@@ -281,6 +304,29 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Foglio 1'!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18:51:18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18:51:48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18:52:19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18:52:49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18:53:19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Foglio 1'!$D$2:$D$6</c:f>
@@ -317,16 +363,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148446872"/>
-        <c:axId val="149122592"/>
+        <c:axId val="392909848"/>
+        <c:axId val="392910240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148446872"/>
+        <c:axId val="392909848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -363,7 +410,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149122592"/>
+        <c:crossAx val="392910240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -371,7 +418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149122592"/>
+        <c:axId val="392910240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,7 +469,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148446872"/>
+        <c:crossAx val="392909848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1369,18 +1416,17 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1468,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1482,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
